--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_General.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.275278258287992</v>
+        <v>0.3770488950870826</v>
       </c>
       <c r="D2">
-        <v>0.7831137534353809</v>
+        <v>0.7084804737371915</v>
       </c>
       <c r="E2">
         <v>5.977935206743004</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.348158417097033</v>
+        <v>0.3661758554726863</v>
       </c>
       <c r="D3">
-        <v>0.7277357582572073</v>
+        <v>0.7165026041637743</v>
       </c>
       <c r="E3">
         <v>5.977935206743004</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.9246294978009847</v>
+        <v>-1.320985395030964</v>
       </c>
       <c r="D4">
-        <v>0.3552029394443759</v>
+        <v>0.1953283484710904</v>
       </c>
       <c r="E4">
         <v>5.977935206743004</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-3.208519021859746</v>
+        <v>-1.884892892690875</v>
       </c>
       <c r="D5">
-        <v>0.00134256192233595</v>
+        <v>0.06801531879242573</v>
       </c>
       <c r="E5">
         <v>5.977935206743004</v>
@@ -531,7 +528,7 @@
         <v>8.211251237445371</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>20</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.01351799694284871</v>
+        <v>0.01839022096354475</v>
       </c>
       <c r="D6">
-        <v>0.9892150625818594</v>
+        <v>0.9854350523506523</v>
       </c>
       <c r="E6">
         <v>5.825694313001931</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.368121582266369</v>
+        <v>-1.375003981650049</v>
       </c>
       <c r="D7">
-        <v>0.1713350235574795</v>
+        <v>0.1781240669822768</v>
       </c>
       <c r="E7">
         <v>5.825694313001931</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-3.356177065945744</v>
+        <v>-2.021922596284605</v>
       </c>
       <c r="D8">
-        <v>0.0007961282144632875</v>
+        <v>0.05111019185074661</v>
       </c>
       <c r="E8">
         <v>5.825694313001931</v>
@@ -609,7 +606,7 @@
         <v>8.211251237445371</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>40</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.412249927086608</v>
+        <v>-1.288110274518346</v>
       </c>
       <c r="D9">
-        <v>0.1579381369191486</v>
+        <v>0.2064053868009432</v>
       </c>
       <c r="E9">
         <v>5.818397377810958</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-3.253376923024105</v>
+        <v>-1.89499060913057</v>
       </c>
       <c r="D10">
-        <v>0.001147940867164632</v>
+        <v>0.06662294914767442</v>
       </c>
       <c r="E10">
         <v>5.818397377810958</v>
@@ -661,7 +658,7 @@
         <v>8.211251237445371</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-2.514819168679196</v>
+        <v>-1.586166888251203</v>
       </c>
       <c r="D11">
-        <v>0.01194022809339579</v>
+        <v>0.1219594697407995</v>
       </c>
       <c r="E11">
         <v>6.511033151789401</v>
@@ -687,7 +684,7 @@
         <v>8.211251237445371</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>100</v>
